--- a/temp/QAQs.xlsx
+++ b/temp/QAQs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RR-project\NL2GraphQuery-workplace\code\NLtoGQ\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F55D7D5-9D6F-42C2-9B95-DA3407567310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F9F77E-0537-45C4-8E1A-652DD384F5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="3930" windowWidth="26685" windowHeight="13305" tabRatio="448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="32640" windowHeight="21240" tabRatio="448" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QAQ" sheetId="1" r:id="rId1"/>
     <sheet name="KG" sheetId="2" r:id="rId2"/>
+    <sheet name="Metrics" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="185">
   <si>
     <t>cathay pacific</t>
   </si>
@@ -699,12 +700,54 @@
       <t xml:space="preserve"> with a 280 cm 110 in fan</t>
     </r>
   </si>
+  <si>
+    <t>Percision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1 score</t>
+  </si>
+  <si>
+    <t>test accuracy</t>
+  </si>
+  <si>
+    <t>F1 macro</t>
+  </si>
+  <si>
+    <t>F1 micro</t>
+  </si>
+  <si>
+    <t>F1 weighted</t>
+  </si>
+  <si>
+    <t>RoBERTa fine tuning</t>
+  </si>
+  <si>
+    <t>One-hop (RoBERTa fine tuning)</t>
+  </si>
+  <si>
+    <t>Multi-hop (transformer: Masked sentence input &amp; RoBERTa embedding)</t>
+  </si>
+  <si>
+    <t>Multi-hop (transformer: Masked sentence input)</t>
+  </si>
+  <si>
+    <t>Multi-hop (transformer: Seperator  sentence input)</t>
+  </si>
+  <si>
+    <t>Named Entity Recognition</t>
+  </si>
+  <si>
+    <t>Relation Prediction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,6 +811,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -816,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -872,6 +922,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1393,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD6A53-FC28-49F0-97AD-33B55A1E36B3}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2809,4 +2877,168 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EBAD6B-760C-4657-B401-2D72759DD5BF}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="30">
+        <v>0.96</v>
+      </c>
+      <c r="C3" s="30">
+        <v>0.96</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="30">
+        <v>0.48</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0.88</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.61</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="30">
+        <v>0.31</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0.67</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="30">
+        <v>0.42</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0.76</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>